--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf8-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf8-Fgfr4.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.132884</v>
+        <v>0.08378199999999998</v>
       </c>
       <c r="N2">
-        <v>0.398652</v>
+        <v>0.251346</v>
       </c>
       <c r="O2">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="P2">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="Q2">
-        <v>0.01711271293066667</v>
+        <v>0.01078939010533333</v>
       </c>
       <c r="R2">
-        <v>0.154014416376</v>
+        <v>0.09710451094799998</v>
       </c>
       <c r="S2">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="T2">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07352966666666666</v>
+        <v>0.07352966666666667</v>
       </c>
       <c r="N3">
         <v>0.220589</v>
       </c>
       <c r="O3">
-        <v>0.006615533976389703</v>
+        <v>0.006644889460697858</v>
       </c>
       <c r="P3">
-        <v>0.006615533976389702</v>
+        <v>0.006644889460697857</v>
       </c>
       <c r="Q3">
-        <v>0.009469101453555555</v>
+        <v>0.009469101453555557</v>
       </c>
       <c r="R3">
         <v>0.085221913082</v>
       </c>
       <c r="S3">
-        <v>0.006615533976389703</v>
+        <v>0.006644889460697858</v>
       </c>
       <c r="T3">
-        <v>0.006615533976389702</v>
+        <v>0.006644889460697857</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>32.724855</v>
       </c>
       <c r="O4">
-        <v>0.9814287662799436</v>
+        <v>0.9857837158351757</v>
       </c>
       <c r="P4">
-        <v>0.9814287662799435</v>
+        <v>0.9857837158351755</v>
       </c>
       <c r="Q4">
         <v>1.40476167011</v>
@@ -694,10 +694,10 @@
         <v>12.64285503099</v>
       </c>
       <c r="S4">
-        <v>0.9814287662799436</v>
+        <v>0.9857837158351757</v>
       </c>
       <c r="T4">
-        <v>0.9814287662799435</v>
+        <v>0.9857837158351755</v>
       </c>
     </row>
   </sheetData>
